--- a/biology/Médecine/Medadom/Medadom.xlsx
+++ b/biology/Médecine/Medadom/Medadom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Medadom est une start-up française, créée en 2017 et implantée à Paris. Elle propose un service de téléconsultation en ligne dans le cadre de soins non programmés, sans rendez-vous, depuis un smartphone, un ordinateur, via une borne ou une cabine équipée de dispositifs médicaux connectés.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise MEDADOM — un acronyme pour « Médical à domicile »[1] — est fondée en 2017, par les medecins Charles et Elie-Dan Mimouni et Nathaniel Bern, ingénieur polytechnicien[2],[3]. Démarrant son activité dans les domaines du conseil et de la prise de rendez-vous en ligne, elle se diversifie, au cours de l'année 2019, en se lançant dans la téléconsultation  et l'installation de bornes dans les pharmacies. Fin 2019, son service est accessible dans deux cents pharmacies et est assuré par environ cent-cinquante professionnels de la santé[3].
-En août 2020, l'entreprise installe une première cabine de télémédecine dans le quartier du Bois-l'Abbé à Champigny-sur-Marne. Le service de vidéo-consultation induit la création de trois emplois[4]. Au cours de l'automne de la même année, le développement national des prestations de santé à distance, suscité par la pandémie de Covid-19, permet à la start-up de réaliser une levée de fonds de quarante millions d'euros[5].
-Fin 2020, MEDADOM, dont l'effectif est passé de cinq à une trentaine de salariés en quelques mois[2], a déployé dans des pharmacies de France un total de 350 bornes connectées de téléconsultation médicale[6].
-En février 2021, MEDADOM entre dans le classement French Tech 120, ce qui garantit à l'entreprise le soutien de l'État français tout au long de l'année 2021[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise MEDADOM — un acronyme pour « Médical à domicile » — est fondée en 2017, par les medecins Charles et Elie-Dan Mimouni et Nathaniel Bern, ingénieur polytechnicien,. Démarrant son activité dans les domaines du conseil et de la prise de rendez-vous en ligne, elle se diversifie, au cours de l'année 2019, en se lançant dans la téléconsultation  et l'installation de bornes dans les pharmacies. Fin 2019, son service est accessible dans deux cents pharmacies et est assuré par environ cent-cinquante professionnels de la santé.
+En août 2020, l'entreprise installe une première cabine de télémédecine dans le quartier du Bois-l'Abbé à Champigny-sur-Marne. Le service de vidéo-consultation induit la création de trois emplois. Au cours de l'automne de la même année, le développement national des prestations de santé à distance, suscité par la pandémie de Covid-19, permet à la start-up de réaliser une levée de fonds de quarante millions d'euros.
+Fin 2020, MEDADOM, dont l'effectif est passé de cinq à une trentaine de salariés en quelques mois, a déployé dans des pharmacies de France un total de 350 bornes connectées de téléconsultation médicale.
+En février 2021, MEDADOM entre dans le classement French Tech 120, ce qui garantit à l'entreprise le soutien de l'État français tout au long de l'année 2021. 
 Depuis ses débuts, MEDADOM a étendu ses services en installant 4 300 bornes sur tout le territoire français. Ces bornes et cabines permettent aux patients d'accéder à des consultations médicales à distance dans des endroits où l'accès à Internet ou à des services de télémédecine peut être limité.
 </t>
         </is>
@@ -547,10 +561,12 @@
           <t>Services et activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le service de téléconsultation de MEDADOM met en relation médecins et patients via une plate-forme web. Il est accessible sur tout support connecté à internet, tel qu'un ordinateur, un smartphone, une tablette numérique ou une borne connectée disponible en pharmacie[5],[6],[2].
-Mi-2020, MEDADOM mobilise 80 médecins téléconsultants, généralistes ou spécialistes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service de téléconsultation de MEDADOM met en relation médecins et patients via une plate-forme web. Il est accessible sur tout support connecté à internet, tel qu'un ordinateur, un smartphone, une tablette numérique ou une borne connectée disponible en pharmacie.
+Mi-2020, MEDADOM mobilise 80 médecins téléconsultants, généralistes ou spécialistes.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Impact et Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis sa fondation, MEDADOM a connu la croissance et a joué un rôle dans la démocratisation de l'accès aux soins[8] de santé en ligne. 
-Grâce à ces consultations virtuelles, MEDADOM a permis à des personnes d'accéder à des services médicaux, en particulier dans les zones éloignées[9] ou sous-dotées en infrastructures de santé traditionnelles.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa fondation, MEDADOM a connu la croissance et a joué un rôle dans la démocratisation de l'accès aux soins de santé en ligne. 
+Grâce à ces consultations virtuelles, MEDADOM a permis à des personnes d'accéder à des services médicaux, en particulier dans les zones éloignées ou sous-dotées en infrastructures de santé traditionnelles.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Engagement envers la Qualité et la Sécurité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise met en œuvre des mécanismes de contrôle qualité[10] pour les patients.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise met en œuvre des mécanismes de contrôle qualité pour les patients.
 </t>
         </is>
       </c>
